--- a/Table1/output/summary_statistics_Table1.xlsx
+++ b/Table1/output/summary_statistics_Table1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="54">
   <si>
     <t>Strain</t>
   </si>
@@ -219,33 +219,2913 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="true" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyFill="true" applyNumberFormat="true" borderId="0" fillId="3" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="165">
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="5"/>
+  <cellXfs count="966">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="4"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="5"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Standard" xfId="0"/>
     <cellStyle name="XLConnect.Header" xfId="1"/>
     <cellStyle name="XLConnect.String" xfId="2"/>
     <cellStyle name="XLConnect.Numeric" xfId="3"/>
@@ -259,537 +3139,537 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" s="726" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="727" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="728" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="729" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="730" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="731" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="732" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" s="733" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="I1" s="734" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="J1" s="735" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="K1" s="736" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="L1" s="737" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="M1" s="738" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="N1" s="739" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="O1" s="740" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="P1" s="741" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="Q1" s="742" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="2">
+      <c r="A2" s="743" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="752" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="761" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="n" s="3">
+      <c r="D2" s="770" t="n">
         <v>0.702</v>
       </c>
-      <c r="E2" t="n" s="3">
+      <c r="E2" s="779" t="n">
         <v>-8.87</v>
       </c>
-      <c r="F2" t="n" s="3">
+      <c r="F2" s="788" t="n">
         <v>0.0193</v>
       </c>
-      <c r="G2" t="n" s="3">
+      <c r="G2" s="797" t="n">
         <v>0.00176</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="H2" s="806" t="s">
         <v>36</v>
       </c>
-      <c r="I2" t="n" s="3">
+      <c r="I2" s="815" t="n">
         <v>0.333</v>
       </c>
-      <c r="J2" t="n" s="3">
+      <c r="J2" s="824" t="n">
         <v>-10.3</v>
       </c>
-      <c r="K2" t="n" s="3">
+      <c r="K2" s="833" t="n">
         <v>0.0123</v>
       </c>
-      <c r="L2" t="n" s="3">
+      <c r="L2" s="842" t="n">
         <v>7.23E-4</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="M2" s="851" t="s">
         <v>45</v>
       </c>
-      <c r="N2" t="n" s="3">
+      <c r="N2" s="860" t="n">
         <v>1.07</v>
       </c>
-      <c r="O2" t="n" s="3">
+      <c r="O2" s="869" t="n">
         <v>-7.46</v>
       </c>
-      <c r="P2" t="n" s="3">
+      <c r="P2" s="878" t="n">
         <v>0.0263</v>
       </c>
-      <c r="Q2" t="n" s="3">
+      <c r="Q2" s="887" t="n">
         <v>0.0028</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" s="744" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="753" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="762" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="n" s="3">
+      <c r="D3" s="771" t="n">
         <v>0.777</v>
       </c>
-      <c r="E3" t="n" s="3">
+      <c r="E3" s="780" t="n">
         <v>-0.189</v>
       </c>
-      <c r="F3" t="n" s="3">
+      <c r="F3" s="789" t="n">
         <v>0.11</v>
       </c>
-      <c r="G3" t="n" s="3">
+      <c r="G3" s="798" t="n">
         <v>0.516</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" s="807" t="s">
         <v>37</v>
       </c>
-      <c r="I3" t="n" s="3">
+      <c r="I3" s="816" t="n">
         <v>0.728</v>
       </c>
-      <c r="J3" t="n" s="3">
+      <c r="J3" s="825" t="n">
         <v>-0.274</v>
       </c>
-      <c r="K3" t="n" s="3">
+      <c r="K3" s="834" t="n">
         <v>0.0789</v>
       </c>
-      <c r="L3" t="n" s="3">
+      <c r="L3" s="843" t="n">
         <v>0.142</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="M3" s="852" t="s">
         <v>46</v>
       </c>
-      <c r="N3" t="n" s="3">
+      <c r="N3" s="861" t="n">
         <v>0.826</v>
       </c>
-      <c r="O3" t="n" s="3">
+      <c r="O3" s="870" t="n">
         <v>-0.105</v>
       </c>
-      <c r="P3" t="n" s="3">
+      <c r="P3" s="879" t="n">
         <v>0.14</v>
       </c>
-      <c r="Q3" t="n" s="3">
+      <c r="Q3" s="888" t="n">
         <v>0.891</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="A4" s="745" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="754" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="763" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="n" s="3">
+      <c r="D4" s="772" t="n">
         <v>0.734</v>
       </c>
-      <c r="E4" t="n" s="3">
+      <c r="E4" s="781" t="n">
         <v>-9.62</v>
       </c>
-      <c r="F4" t="n" s="3">
+      <c r="F4" s="790" t="n">
         <v>19.6</v>
       </c>
-      <c r="G4" t="n" s="3">
+      <c r="G4" s="799" t="n">
         <v>5.16</v>
       </c>
-      <c r="H4" t="s" s="2">
+      <c r="H4" s="808" t="s">
         <v>38</v>
       </c>
-      <c r="I4" t="n" s="3">
+      <c r="I4" s="817" t="n">
         <v>0.514</v>
       </c>
-      <c r="J4" t="n" s="3">
+      <c r="J4" s="826" t="n">
         <v>-10.6</v>
       </c>
-      <c r="K4" t="n" s="3">
+      <c r="K4" s="835" t="n">
         <v>15.4</v>
       </c>
-      <c r="L4" t="n" s="3">
+      <c r="L4" s="844" t="n">
         <v>3.94</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="M4" s="853" t="s">
         <v>47</v>
       </c>
-      <c r="N4" t="n" s="3">
+      <c r="N4" s="862" t="n">
         <v>0.953</v>
       </c>
-      <c r="O4" t="n" s="3">
+      <c r="O4" s="871" t="n">
         <v>-8.65</v>
       </c>
-      <c r="P4" t="n" s="3">
+      <c r="P4" s="880" t="n">
         <v>23.8</v>
       </c>
-      <c r="Q4" t="n" s="3">
+      <c r="Q4" s="889" t="n">
         <v>6.39</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="A5" s="746" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="755" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="764" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="n" s="3">
+      <c r="D5" s="773" t="n">
         <v>0.909</v>
       </c>
-      <c r="E5" t="n" s="3">
+      <c r="E5" s="782" t="n">
         <v>-1.6</v>
       </c>
-      <c r="F5" t="n" s="3">
+      <c r="F5" s="791" t="n">
         <v>0.00772</v>
       </c>
-      <c r="G5" t="n" s="3">
+      <c r="G5" s="800" t="n">
         <v>0.00414</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" s="809" t="s">
         <v>39</v>
       </c>
-      <c r="I5" t="n" s="3">
+      <c r="I5" s="818" t="n">
         <v>0.722</v>
       </c>
-      <c r="J5" t="n" s="3">
+      <c r="J5" s="827" t="n">
         <v>-1.81</v>
       </c>
-      <c r="K5" t="n" s="3">
+      <c r="K5" s="836" t="n">
         <v>0.00527</v>
       </c>
-      <c r="L5" t="n" s="3">
+      <c r="L5" s="845" t="n">
         <v>0.00275</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="M5" s="854" t="s">
         <v>48</v>
       </c>
-      <c r="N5" t="n" s="3">
+      <c r="N5" s="863" t="n">
         <v>1.1</v>
       </c>
-      <c r="O5" t="n" s="3">
+      <c r="O5" s="872" t="n">
         <v>-1.4</v>
       </c>
-      <c r="P5" t="n" s="3">
+      <c r="P5" s="881" t="n">
         <v>0.0102</v>
       </c>
-      <c r="Q5" t="n" s="3">
+      <c r="Q5" s="890" t="n">
         <v>0.00552</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="2">
+      <c r="A6" s="747" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="756" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="765" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="n" s="3">
+      <c r="D6" s="774" t="n">
         <v>0.909</v>
       </c>
-      <c r="E6" t="n" s="3">
+      <c r="E6" s="783" t="n">
         <v>-107.0</v>
       </c>
-      <c r="F6" t="n" s="3">
+      <c r="F6" s="792" t="n">
         <v>60.1</v>
       </c>
-      <c r="G6" t="n" s="3">
+      <c r="G6" s="801" t="n">
         <v>0.182</v>
       </c>
-      <c r="H6" t="s" s="2">
+      <c r="H6" s="810" t="s">
         <v>40</v>
       </c>
-      <c r="I6" t="n" s="3">
+      <c r="I6" s="819" t="n">
         <v>0.638</v>
       </c>
-      <c r="J6" t="n" s="3">
+      <c r="J6" s="828" t="n">
         <v>-938.0</v>
       </c>
-      <c r="K6" t="n" s="3">
+      <c r="K6" s="837" t="n">
         <v>-585.0</v>
       </c>
-      <c r="L6" t="n" s="3">
+      <c r="L6" s="846" t="n">
         <v>-0.56</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="M6" s="855" t="s">
         <v>49</v>
       </c>
-      <c r="N6" t="n" s="3">
+      <c r="N6" s="864" t="n">
         <v>1.18</v>
       </c>
-      <c r="O6" t="n" s="3">
+      <c r="O6" s="873" t="n">
         <v>724.0</v>
       </c>
-      <c r="P6" t="n" s="3">
+      <c r="P6" s="882" t="n">
         <v>705.0</v>
       </c>
-      <c r="Q6" t="n" s="3">
+      <c r="Q6" s="891" t="n">
         <v>0.924</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="2">
+      <c r="A7" s="748" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="757" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="766" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="n" s="3">
+      <c r="D7" s="775" t="n">
         <v>0.729</v>
       </c>
-      <c r="E7" t="n" s="3">
+      <c r="E7" s="784" t="n">
         <v>-0.106</v>
       </c>
-      <c r="F7" t="n" s="3">
+      <c r="F7" s="793" t="n">
         <v>0.168</v>
       </c>
-      <c r="G7" t="n" s="3">
+      <c r="G7" s="802" t="n">
         <v>0.476</v>
       </c>
-      <c r="H7" t="s" s="2">
+      <c r="H7" s="811" t="s">
         <v>41</v>
       </c>
-      <c r="I7" t="n" s="3">
+      <c r="I7" s="820" t="n">
         <v>0.694</v>
       </c>
-      <c r="J7" t="n" s="3">
+      <c r="J7" s="829" t="n">
         <v>-0.158</v>
       </c>
-      <c r="K7" t="n" s="3">
+      <c r="K7" s="838" t="n">
         <v>0.141</v>
       </c>
-      <c r="L7" t="n" s="3">
+      <c r="L7" s="847" t="n">
         <v>0.297</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="M7" s="856" t="s">
         <v>50</v>
       </c>
-      <c r="N7" t="n" s="3">
+      <c r="N7" s="865" t="n">
         <v>0.764</v>
       </c>
-      <c r="O7" t="n" s="3">
+      <c r="O7" s="874" t="n">
         <v>-0.054</v>
       </c>
-      <c r="P7" t="n" s="3">
+      <c r="P7" s="883" t="n">
         <v>0.195</v>
       </c>
-      <c r="Q7" t="n" s="3">
+      <c r="Q7" s="892" t="n">
         <v>0.656</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="2">
+      <c r="A8" s="749" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="758" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="767" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="n" s="3">
+      <c r="D8" s="776" t="n">
         <v>0.753</v>
       </c>
-      <c r="E8" t="n" s="3">
+      <c r="E8" s="785" t="n">
         <v>-0.601</v>
       </c>
-      <c r="F8" t="n" s="3">
+      <c r="F8" s="794" t="n">
         <v>2.54E-4</v>
       </c>
-      <c r="G8" t="n" s="3">
+      <c r="G8" s="803" t="n">
         <v>3.11E-4</v>
       </c>
-      <c r="H8" t="s" s="2">
+      <c r="H8" s="812" t="s">
         <v>42</v>
       </c>
-      <c r="I8" t="n" s="3">
+      <c r="I8" s="821" t="n">
         <v>0.657</v>
       </c>
-      <c r="J8" t="n" s="3">
+      <c r="J8" s="830" t="n">
         <v>-0.691</v>
       </c>
-      <c r="K8" t="n" s="3">
+      <c r="K8" s="839" t="n">
         <v>1.91E-4</v>
       </c>
-      <c r="L8" t="n" s="3">
+      <c r="L8" s="848" t="n">
         <v>1.86E-4</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="M8" s="857" t="s">
         <v>51</v>
       </c>
-      <c r="N8" t="n" s="3">
+      <c r="N8" s="866" t="n">
         <v>0.848</v>
       </c>
-      <c r="O8" t="n" s="3">
+      <c r="O8" s="875" t="n">
         <v>-0.511</v>
       </c>
-      <c r="P8" t="n" s="3">
+      <c r="P8" s="884" t="n">
         <v>3.18E-4</v>
       </c>
-      <c r="Q8" t="n" s="3">
+      <c r="Q8" s="893" t="n">
         <v>4.35E-4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" s="750" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="759" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="768" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="n" s="3">
+      <c r="D9" s="777" t="n">
         <v>0.821</v>
       </c>
-      <c r="E9" t="n" s="3">
+      <c r="E9" s="786" t="n">
         <v>-0.756</v>
       </c>
-      <c r="F9" t="n" s="3">
+      <c r="F9" s="795" t="n">
         <v>2.62E-4</v>
       </c>
-      <c r="G9" t="n" s="3">
+      <c r="G9" s="804" t="n">
         <v>2.48E-4</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" s="813" t="s">
         <v>43</v>
       </c>
-      <c r="I9" t="n" s="3">
+      <c r="I9" s="822" t="n">
         <v>0.647</v>
       </c>
-      <c r="J9" t="n" s="3">
+      <c r="J9" s="831" t="n">
         <v>-0.855</v>
       </c>
-      <c r="K9" t="n" s="3">
+      <c r="K9" s="840" t="n">
         <v>1.57E-4</v>
       </c>
-      <c r="L9" t="n" s="3">
+      <c r="L9" s="849" t="n">
         <v>1.45E-4</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="M9" s="858" t="s">
         <v>52</v>
       </c>
-      <c r="N9" t="n" s="3">
+      <c r="N9" s="867" t="n">
         <v>0.996</v>
       </c>
-      <c r="O9" t="n" s="3">
+      <c r="O9" s="876" t="n">
         <v>-0.658</v>
       </c>
-      <c r="P9" t="n" s="3">
+      <c r="P9" s="885" t="n">
         <v>3.68E-4</v>
       </c>
-      <c r="Q9" t="n" s="3">
+      <c r="Q9" s="894" t="n">
         <v>3.5E-4</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" s="751" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="760" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="769" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="n" s="3">
+      <c r="D10" s="778" t="n">
         <v>0.634</v>
       </c>
-      <c r="E10" t="n" s="3">
+      <c r="E10" s="787" t="n">
         <v>-2.16</v>
       </c>
-      <c r="F10" t="n" s="3">
+      <c r="F10" s="796" t="n">
         <v>0.041</v>
       </c>
-      <c r="G10" t="n" s="3">
+      <c r="G10" s="805" t="n">
         <v>0.0253</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" s="814" t="s">
         <v>44</v>
       </c>
-      <c r="I10" t="n" s="3">
+      <c r="I10" s="823" t="n">
         <v>0.538</v>
       </c>
-      <c r="J10" t="n" s="3">
+      <c r="J10" s="832" t="n">
         <v>-2.36</v>
       </c>
-      <c r="K10" t="n" s="3">
+      <c r="K10" s="841" t="n">
         <v>0.0358</v>
       </c>
-      <c r="L10" t="n" s="3">
+      <c r="L10" s="850" t="n">
         <v>0.0194</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="M10" s="859" t="s">
         <v>53</v>
       </c>
-      <c r="N10" t="n" s="3">
+      <c r="N10" s="868" t="n">
         <v>0.73</v>
       </c>
-      <c r="O10" t="n" s="3">
+      <c r="O10" s="877" t="n">
         <v>-1.96</v>
       </c>
-      <c r="P10" t="n" s="3">
+      <c r="P10" s="886" t="n">
         <v>0.0462</v>
       </c>
-      <c r="Q10" t="n" s="3">
+      <c r="Q10" s="895" t="n">
         <v>0.0311</v>
       </c>
     </row>
@@ -807,232 +3687,232 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" s="896" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="897" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="898" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="899" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="900" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="901" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="902" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="2">
+      <c r="A2" s="903" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="912" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="921" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="n" s="3">
+      <c r="D2" s="930" t="n">
         <v>0.702</v>
       </c>
-      <c r="E2" t="n" s="3">
+      <c r="E2" s="939" t="n">
         <v>-8.87</v>
       </c>
-      <c r="F2" t="n" s="3">
+      <c r="F2" s="948" t="n">
         <v>0.0193</v>
       </c>
-      <c r="G2" t="n" s="3">
+      <c r="G2" s="957" t="n">
         <v>0.00176</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" s="904" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="913" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="922" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="n" s="3">
+      <c r="D3" s="931" t="n">
         <v>0.777</v>
       </c>
-      <c r="E3" t="n" s="3">
+      <c r="E3" s="940" t="n">
         <v>-0.189</v>
       </c>
-      <c r="F3" t="n" s="3">
+      <c r="F3" s="949" t="n">
         <v>0.11</v>
       </c>
-      <c r="G3" t="n" s="3">
+      <c r="G3" s="958" t="n">
         <v>0.516</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="A4" s="905" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="914" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="923" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="n" s="3">
+      <c r="D4" s="932" t="n">
         <v>0.734</v>
       </c>
-      <c r="E4" t="n" s="3">
+      <c r="E4" s="941" t="n">
         <v>-9.62</v>
       </c>
-      <c r="F4" t="n" s="3">
+      <c r="F4" s="950" t="n">
         <v>19.6</v>
       </c>
-      <c r="G4" t="n" s="3">
+      <c r="G4" s="959" t="n">
         <v>5.16</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="A5" s="906" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="915" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="924" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="n" s="3">
+      <c r="D5" s="933" t="n">
         <v>0.909</v>
       </c>
-      <c r="E5" t="n" s="3">
+      <c r="E5" s="942" t="n">
         <v>-1.6</v>
       </c>
-      <c r="F5" t="n" s="3">
+      <c r="F5" s="951" t="n">
         <v>0.00772</v>
       </c>
-      <c r="G5" t="n" s="3">
+      <c r="G5" s="960" t="n">
         <v>0.00414</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="2">
+      <c r="A6" s="907" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="916" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="925" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="n" s="3">
+      <c r="D6" s="934" t="n">
         <v>0.909</v>
       </c>
-      <c r="E6" t="n" s="3">
+      <c r="E6" s="943" t="n">
         <v>-107.0</v>
       </c>
-      <c r="F6" t="n" s="3">
+      <c r="F6" s="952" t="n">
         <v>60.1</v>
       </c>
-      <c r="G6" t="n" s="3">
+      <c r="G6" s="961" t="n">
         <v>0.182</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="2">
+      <c r="A7" s="908" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="917" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="926" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="n" s="3">
+      <c r="D7" s="935" t="n">
         <v>0.729</v>
       </c>
-      <c r="E7" t="n" s="3">
+      <c r="E7" s="944" t="n">
         <v>-0.106</v>
       </c>
-      <c r="F7" t="n" s="3">
+      <c r="F7" s="953" t="n">
         <v>0.168</v>
       </c>
-      <c r="G7" t="n" s="3">
+      <c r="G7" s="962" t="n">
         <v>0.476</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="2">
+      <c r="A8" s="909" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="918" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="927" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="n" s="3">
+      <c r="D8" s="936" t="n">
         <v>0.753</v>
       </c>
-      <c r="E8" t="n" s="3">
+      <c r="E8" s="945" t="n">
         <v>-0.601</v>
       </c>
-      <c r="F8" t="n" s="3">
+      <c r="F8" s="954" t="n">
         <v>2.54E-4</v>
       </c>
-      <c r="G8" t="n" s="3">
+      <c r="G8" s="963" t="n">
         <v>3.11E-4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" s="910" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="919" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="928" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="n" s="3">
+      <c r="D9" s="937" t="n">
         <v>0.821</v>
       </c>
-      <c r="E9" t="n" s="3">
+      <c r="E9" s="946" t="n">
         <v>-0.756</v>
       </c>
-      <c r="F9" t="n" s="3">
+      <c r="F9" s="955" t="n">
         <v>2.62E-4</v>
       </c>
-      <c r="G9" t="n" s="3">
+      <c r="G9" s="964" t="n">
         <v>2.48E-4</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" s="911" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="920" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="929" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="n" s="3">
+      <c r="D10" s="938" t="n">
         <v>0.634</v>
       </c>
-      <c r="E10" t="n" s="3">
+      <c r="E10" s="947" t="n">
         <v>-2.16</v>
       </c>
-      <c r="F10" t="n" s="3">
+      <c r="F10" s="956" t="n">
         <v>0.041</v>
       </c>
-      <c r="G10" t="n" s="3">
+      <c r="G10" s="965" t="n">
         <v>0.0253</v>
       </c>
     </row>
